--- a/July/Suraj/Suraj_Toll_Bill_Summery.xlsx
+++ b/July/Suraj/Suraj_Toll_Bill_Summery.xlsx
@@ -22,59 +22,168 @@
     <style:font-face style:name="Noto Sans CJK SC" svg:font-family="'Noto Sans CJK SC'" style:font-family-generic="system" style:font-pitch="variable"/>
   </office:font-face-decls>
   <office:automatic-styles>
-    <style:style style:name="co1" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.224cm"/>
+    <style:style style:name="co5" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.921cm"/>
+    </style:style>
+    <style:style style:name="co6" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="4.165cm"/>
+    </style:style>
+    <style:style style:name="co7" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="3.395cm"/>
+    </style:style>
+    <style:style style:name="co8" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="3.62cm"/>
     </style:style>
     <style:style style:name="co2" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="3.717cm"/>
     </style:style>
-    <style:style style:name="co3" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="5.766cm"/>
-    </style:style>
     <style:style style:name="co4" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.258cm"/>
     </style:style>
-    <style:style style:name="co5" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.921cm"/>
-    </style:style>
-    <style:style style:name="co6" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="4.165cm"/>
-    </style:style>
-    <style:style style:name="co7" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="3.395cm"/>
-    </style:style>
-    <style:style style:name="co8" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="3.62cm"/>
-    </style:style>
-    <style:style style:name="ro1" style:family="table-row">
-      <style:table-row-properties style:row-height="0.487cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro2" style:family="table-row">
-      <style:table-row-properties style:row-height="0.499cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    <style:style style:name="co11" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.224cm"/>
+    </style:style>
+    <style:style style:name="co12" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="5.766cm"/>
+    </style:style>
+    <style:style style:name="ro4" style:family="table-row">
+      <style:table-row-properties style:row-height="0.473cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro5" style:family="table-row">
+      <style:table-row-properties style:row-height="0.529cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro6" style:family="table-row">
+      <style:table-row-properties style:row-height="0.894cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro7" style:family="table-row">
+      <style:table-row-properties style:row-height="0.473cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro8" style:family="table-row">
+      <style:table-row-properties style:row-height="0.466cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro3" style:family="table-row">
       <style:table-row-properties style:row-height="0.452cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro4" style:family="table-row">
-      <style:table-row-properties style:row-height="0.494cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro5" style:family="table-row">
-      <style:table-row-properties style:row-height="0.529cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro6" style:family="table-row">
-      <style:table-row-properties style:row-height="0.894cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro7" style:family="table-row">
-      <style:table-row-properties style:row-height="0.473cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro8" style:family="table-row">
-      <style:table-row-properties style:row-height="0.466cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
     <style:style style:name="ro9" style:family="table-row">
       <style:table-row-properties style:row-height="0.841cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
+    <style:style style:name="ro11" style:family="table-row">
+      <style:table-row-properties style:row-height="0.487cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro12" style:family="table-row">
+      <style:table-row-properties style:row-height="0.499cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
+    </style:style>
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce100" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
+      <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
+    </style:style>
+    <style:style style:name="ce103" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
+      <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-weight-asian="bold" style:font-size-complex="10.5pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce106" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center"/>
+      <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-weight-asian="bold" style:font-size-complex="10.5pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce107" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
+      <style:paragraph-properties fo:text-align="end" fo:margin-left="0cm"/>
+      <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
+    </style:style>
+    <style:style style:name="ce108" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border="0.06pt solid #000000"/>
+      <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
+    </style:style>
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center"/>
+      <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
+      <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
+    </style:style>
+    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
+      <style:text-properties fo:color="#000000" style:font-name="Arial" fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-name-complex="Arial" style:font-size-complex="10.5pt"/>
+    </style:style>
+    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ffffff" style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
+      <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-weight-asian="bold" style:font-size-complex="10.5pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
+    </style:style>
+    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="none" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center"/>
+      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="12pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC" style:font-size-asian="12pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Arial" style:font-size-complex="12pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="bold" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce37" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="end" fo:margin-left="0cm"/>
+      <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
+    </style:style>
+    <style:style style:name="ce43" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="end" fo:margin-left="0cm"/>
+      <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-weight-asian="bold" style:font-size-complex="10.5pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce44" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
+    </style:style>
+    <style:style style:name="ce49" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ffffff" style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
+      <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
+    </style:style>
+    <style:style style:name="ce88" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="none" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center"/>
+      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Arial" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce90" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="none" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center"/>
+      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10.5pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC" style:font-size-asian="10.5pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10.5pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce93" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
+      <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-weight-asian="bold" style:font-size-complex="10.5pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce94" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
+      <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
+    </style:style>
+    <style:style style:name="ce98" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border="none"/>
+      <style:text-properties fo:font-size="11pt" style:font-size-asian="11pt" style:font-size-complex="11pt"/>
+    </style:style>
+    <style:style style:name="ce99" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border="none"/>
+      <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
     </style:style>
     <style:style style:name="ce39" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" style:text-align-source="fix" style:repeat-content="false" fo:border-left="0.06pt solid #000000" fo:border-right="0.06pt solid #000000" fo:border-top="0.06pt solid #000000" style:vertical-align="middle"/>
@@ -114,12 +223,12 @@
       <style:paragraph-properties fo:text-align="center"/>
       <style:text-properties fo:font-size="11pt" fo:font-weight="bold" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce51" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Arial" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce60" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
@@ -156,127 +265,130 @@
       <style:table-cell-properties fo:background-color="#eeeeee" fo:border="0.06pt solid #000000"/>
       <style:text-properties fo:font-size="11pt" fo:font-weight="bold" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce69" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center"/>
       <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce88" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce70" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="none" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center"/>
       <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce71" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="none" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center"/>
       <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="12pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC" style:font-size-asian="12pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Arial" style:font-size-complex="12pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="bold" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce90" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce72" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="none" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center"/>
       <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial" fo:font-size="10.5pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC" style:font-size-asian="10.5pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial" style:font-size-complex="10.5pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce73" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
       <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
     </style:style>
-    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce74" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
       <style:text-properties fo:color="#000000" style:font-name="Arial" fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-name-complex="Arial" style:font-size-complex="10.5pt"/>
     </style:style>
-    <style:style style:name="ce93" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce75" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
       <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-weight-asian="bold" style:font-size-complex="10.5pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce94" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce76" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
       <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
     </style:style>
-    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce77" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="#ffffff" style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
       <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-weight-asian="bold" style:font-size-complex="10.5pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce43" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce78" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="end" fo:margin-left="0cm"/>
       <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-weight-asian="bold" style:font-size-complex="10.5pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce44" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce79" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
     </style:style>
-    <style:style style:name="ce98" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce80" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border="none"/>
       <style:text-properties fo:font-size="11pt" style:font-size-asian="11pt" style:font-size-complex="11pt"/>
     </style:style>
-    <style:style style:name="ce99" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce81" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border="none"/>
       <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
     </style:style>
-    <style:style style:name="ce100" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce82" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
       <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
     </style:style>
-    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Default">
-      <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
-    </style:style>
-    <style:style style:name="ce49" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce83" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
+    </style:style>
+    <style:style style:name="ce84" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="#ffffff" style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
       <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
     </style:style>
-    <style:style style:name="ce103" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce85" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
       <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-weight-asian="bold" style:font-size-complex="10.5pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce37" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce86" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="end" fo:margin-left="0cm"/>
       <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
     </style:style>
-    <style:style style:name="ce106" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce87" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center"/>
       <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-weight-asian="bold" style:font-size-complex="10.5pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce107" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce89" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
       <style:paragraph-properties fo:text-align="end" fo:margin-left="0cm"/>
       <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
     </style:style>
-    <style:style style:name="ce108" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce91" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border="0.06pt solid #000000"/>
       <style:text-properties fo:font-size="10.5pt" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt"/>
-    </style:style>
-    <style:style style:name="T1" style:family="text">
-      <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="T2" style:family="text">
-      <style:text-properties style:font-size-asian="11pt" style:font-size-complex="11pt" style:font-weight-asian="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="T3" style:family="text">
       <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
     </style:style>
+    <style:style style:name="T2" style:family="text">
+      <style:text-properties style:font-size-asian="11pt" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-weight-complex="normal"/>
+    </style:style>
     <style:style style:name="T4" style:family="text">
       <style:text-properties fo:font-weight="normal" style:font-weight-asian="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="T5" style:family="text">
+      <style:text-properties fo:font-size="10.5pt" fo:font-weight="bold" style:font-size-asian="10.5pt" style:font-size-complex="10.5pt" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="T6" style:family="text">
+      <style:text-properties style:font-size-asian="11pt" style:font-size-complex="11pt" style:font-weight-asian="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
     <office:spreadsheet>
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="Toll Bill Summery" table:style-name="ta1">
-        <table:table-column table:style-name="co1" table:default-cell-style-name="ce47"/>
+        <table:table-column table:style-name="co11" table:default-cell-style-name="ce47"/>
         <table:table-column table:style-name="co2" table:default-cell-style-name="ce47"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce47"/>
+        <table:table-column table:style-name="co12" table:default-cell-style-name="ce47"/>
         <table:table-column table:style-name="co4" table:number-columns-repeated="3" table:default-cell-style-name="Default"/>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell table:style-name="ce39" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
             <text:p>SURAJ ENTERPRISES &amp; TRANSPORTS COMPANY</text:p>
           </table:table-cell>
@@ -284,18 +396,18 @@
           <table:covered-table-cell table:style-name="ce56"/>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro12">
           <table:table-cell table:style-name="ce40" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
             <text:p>
               Vendor Code: 
-              <text:span text:style-name="T1">0011975714</text:span>
+              <text:span text:style-name="T5">0011975714</text:span>
             </text:p>
           </table:table-cell>
           <table:covered-table-cell table:style-name="ce53"/>
           <table:covered-table-cell table:style-name="ce57"/>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell table:style-name="ce41" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
             <text:p>
               Invoice No.: ??? 
@@ -308,7 +420,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell table:style-name="ce42" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
             <text:p>IOCL Jaipur-BP</text:p>
           </table:table-cell>
@@ -316,15 +428,15 @@
           <table:covered-table-cell table:style-name="ce57"/>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
-            <text:p>????? 2022 Toll Bill Summery</text:p>
+            <text:p>July 2022 Toll Bill Summery</text:p>
           </table:table-cell>
           <table:covered-table-cell table:style-name="ce53"/>
           <table:covered-table-cell table:style-name="ce57"/>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell table:style-name="ce46" office:value-type="string" calcext:value-type="string">
             <text:p>S.No.</text:p>
           </table:table-cell>
@@ -336,7 +448,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
             <text:p>1</text:p>
           </table:table-cell>
@@ -345,7 +457,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
@@ -354,7 +466,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
@@ -363,7 +475,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
             <text:p>4</text:p>
           </table:table-cell>
@@ -372,7 +484,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="5" calcext:value-type="float">
             <text:p>5</text:p>
           </table:table-cell>
@@ -381,7 +493,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
             <text:p>6</text:p>
           </table:table-cell>
@@ -390,7 +502,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
             <text:p>7</text:p>
           </table:table-cell>
@@ -399,7 +511,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
             <text:p>8</text:p>
           </table:table-cell>
@@ -408,7 +520,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="9" calcext:value-type="float">
             <text:p>9</text:p>
           </table:table-cell>
@@ -417,7 +529,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
             <text:p>10</text:p>
           </table:table-cell>
@@ -426,7 +538,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="11" calcext:value-type="float">
             <text:p>11</text:p>
           </table:table-cell>
@@ -435,7 +547,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="12" calcext:value-type="float">
             <text:p>12</text:p>
           </table:table-cell>
@@ -444,7 +556,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell table:style-name="ce48" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
             <text:p>GRAND TOTAL</text:p>
           </table:table-cell>
@@ -454,42 +566,42 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro11">
           <table:table-cell table:style-name="Default"/>
           <table:table-cell table:style-name="ce55" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="5" table:number-rows-spanned="1">
             <text:p>(Rs. One Lakh Forty Three Thousand Five Hundred Twenty ??????? Two Only)</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:style-name="ce19"/>
+          <table:covered-table-cell table:style-name="ce69"/>
           <table:covered-table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell table:style-name="Default" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:style-name="ce69"/>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce51" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
             <text:p>UnderTaking:</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce9"/>
+          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce51"/>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce60" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
             <text:p>This is to be certified that the routes followed by our trucks are as per approved RTD.</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce10"/>
+          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce60"/>
           <table:covered-table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce60" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
             <text:p>The toll charges are as per GOVT approved rates and as per approved RTKM route only.</text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="2" table:style-name="Default"/>
           <table:covered-table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce60" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
             <text:p>If there is ambiguity found in future, recovery to be made as per TDG guidelines</text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="2" table:style-name="Default"/>
@@ -497,18 +609,18 @@
         </table:table-row>
       </table:table>
       <table:table table:name="GST Invoice" table:style-name="ta1">
-        <table:table-column table:style-name="co5" table:default-cell-style-name="ce94"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce94"/>
-        <table:table-column table:style-name="co7" table:default-cell-style-name="ce94"/>
-        <table:table-column table:style-name="co8" table:default-cell-style-name="ce94"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce94"/>
+        <table:table-column table:style-name="co5" table:default-cell-style-name="ce76"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce76"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="ce76"/>
+        <table:table-column table:style-name="co8" table:default-cell-style-name="ce76"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce76"/>
         <table:table-column table:style-name="co4" table:number-columns-repeated="2" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro4">
-          <table:table-cell table:style-name="ce88" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce70" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
             <text:p>Original copy</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce98"/>
-          <table:table-cell table:style-name="ce107" office:value-type="string" calcext:value-type="string">
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce80"/>
+          <table:table-cell table:style-name="ce89" office:value-type="string" calcext:value-type="string">
             <text:p>
               <text:span text:style-name="T3">Invoice No –</text:span>
                ???
@@ -517,113 +629,113 @@
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce35" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="5" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce71" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="5" table:number-rows-spanned="1">
             <text:p>SURAJ ENTERPRISES &amp; TRANSPORTS COMPANY</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce98"/>
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce80"/>
           <table:covered-table-cell table:style-name="Default"/>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro6">
-          <table:table-cell table:style-name="ce90" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="5" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce72" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="5" table:number-rows-spanned="1">
             <text:p>
-              <text:span text:style-name="T2">Sutharo ka baas, Khichan, Phalodi, Jodhpur-342301</text:span>
+              <text:span text:style-name="T6">Sutharo ka baas, Khichan, Phalodi, Jodhpur-342301</text:span>
             </text:p>
             <text:p>
-              <text:span text:style-name="T2">Mob.: 9928514684</text:span>
+              <text:span text:style-name="T6">Mob.: 9928514684</text:span>
             </text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce99"/>
-          <table:covered-table-cell table:style-name="ce33"/>
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce81"/>
+          <table:covered-table-cell table:style-name="ce83"/>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
-          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce73" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
             <text:p>
               <text:span text:style-name="T3">GST No: </text:span>
                Not regisreterd under GSTIN
             </text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce100"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce82"/>
+          <table:table-cell table:style-name="ce73" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
             <text:p>
               <text:span text:style-name="T3">Party Name:  </text:span>
               LPG BP - Jaipur (1374)
             </text:p>
           </table:table-cell>
-          <table:covered-table-cell table:style-name="ce33"/>
-          <table:table-cell table:style-name="ce33"/>
+          <table:covered-table-cell table:style-name="ce83"/>
+          <table:table-cell table:style-name="ce83"/>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
-          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce73" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
             <text:p>
               <text:span text:style-name="T3">PAN:  </text:span>
               GHWPS8849Q
             </text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce33"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce83"/>
+          <table:table-cell table:style-name="ce73" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
             <text:p>
               <text:span text:style-name="T3">Party GSTIN: </text:span>
                08AAACI1681G2ZO
             </text:p>
           </table:table-cell>
-          <table:covered-table-cell table:style-name="ce33"/>
-          <table:table-cell table:style-name="ce33"/>
+          <table:covered-table-cell table:style-name="ce83"/>
+          <table:table-cell table:style-name="ce83"/>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
-          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce73" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
             <text:p>
               <text:span text:style-name="T3">Vendor Code:</text:span>
                 0011975714
             </text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce33"/>
+          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce83"/>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce33"/>
+          <table:table-cell table:style-name="ce83"/>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro4">
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce74" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="3" table:number-rows-spanned="1">
             <text:p>
               <text:span text:style-name="T3">Tender No:</text:span>
                 RCC/NR/RSO/LPG/PT-254/20-21
             </text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce33"/>
-          <table:table-cell table:style-name="ce37" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce83"/>
+          <table:table-cell table:style-name="ce86" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
             <text:p>
               <text:span text:style-name="T3">Date:  </text:span>
               <text:span text:style-name="T4">?</text:span>
                ????? 2022
             </text:p>
           </table:table-cell>
-          <table:covered-table-cell table:style-name="ce33"/>
+          <table:covered-table-cell table:style-name="ce83"/>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro8">
-          <table:table-cell table:style-name="ce24"/>
-          <table:table-cell table:style-name="ce33" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce37"/>
-          <table:table-cell table:style-name="ce33"/>
+          <table:table-cell table:style-name="ce74"/>
+          <table:table-cell table:style-name="ce83" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce86"/>
+          <table:table-cell table:style-name="ce83"/>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro8">
-          <table:table-cell table:style-name="ce93" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce75" office:value-type="string" calcext:value-type="string">
             <text:p>S.No.</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce93" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce75" office:value-type="string" calcext:value-type="string">
             <text:p>Particulars</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce93" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce75" office:value-type="string" calcext:value-type="string">
             <text:p>Truck No.</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce93" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce75" office:value-type="string" calcext:value-type="string">
             <text:p>HSN / ASC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce93" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce75" office:value-type="string" calcext:value-type="string">
             <text:p>Amount</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
@@ -809,9 +921,9 @@
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro8">
-          <table:table-cell table:style-name="ce27" table:number-columns-spanned="3" table:number-rows-spanned="1"/>
-          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce49"/>
-          <table:table-cell table:style-name="ce27" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce77" table:number-columns-spanned="3" table:number-rows-spanned="1"/>
+          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce84"/>
+          <table:table-cell table:style-name="ce77" office:value-type="string" calcext:value-type="string">
             <text:p>Total</text:p>
           </table:table-cell>
           <table:table-cell table:formula="of:=SUM([.E10:.E21])" office:value-type="float" office:value="0" calcext:value-type="float">
@@ -820,61 +932,61 @@
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro8">
-          <table:table-cell table:style-name="ce43" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="5" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce78" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="5" table:number-rows-spanned="1">
             <text:p>Rs. One Lakh Forty Three Thousand Five Hundred Twenty??????? Two Only</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce103"/>
-          <table:covered-table-cell table:style-name="ce106"/>
-          <table:covered-table-cell table:style-name="ce108"/>
+          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce85"/>
+          <table:covered-table-cell table:style-name="ce87"/>
+          <table:covered-table-cell table:style-name="ce91"/>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell table:style-name="Default" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:style-name="ce69"/>
           <table:table-cell table:style-name="Default"/>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro9">
-          <table:table-cell table:style-name="ce44" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="5" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce79" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="5" table:number-rows-spanned="1">
             <text:p>Note: Invoice along with original toll charges as detailed above are eclosed. Kindly </text:p>
             <text:p>Reimburse the toll charges.</text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="2" table:style-name="Default"/>
-          <table:covered-table-cell table:style-name="ce19"/>
+          <table:covered-table-cell table:style-name="ce69"/>
           <table:covered-table-cell table:style-name="Default"/>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell table:style-name="Default" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:style-name="ce69"/>
           <table:table-cell table:style-name="Default"/>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce51" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
             <text:p>UnderTaking:</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce9"/>
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce51"/>
           <table:table-cell table:style-name="Default"/>
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="7" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce60" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="7" table:number-rows-spanned="1">
             <text:p>This is to be certified that the routes followed by our trucks are as per approved RTD.</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce10"/>
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce60"/>
           <table:covered-table-cell table:style-name="Default"/>
           <table:covered-table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="7" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce60" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="7" table:number-rows-spanned="1">
             <text:p>The toll charges are as per GOVT approved rates and as per approved RTKM route only.</text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="4" table:style-name="Default"/>
           <table:covered-table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="7" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce60" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="7" table:number-rows-spanned="1">
             <text:p>If there is ambiguity found in future, recovery to be made as per TDG guidelines</text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="4" table:style-name="Default"/>
@@ -891,9 +1003,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2022-01-29T15:21:55.545604726</meta:creation-date>
-    <dc:date>2022-05-04T22:26:58.520626715</dc:date>
-    <meta:editing-duration>P3DT19H36M1S</meta:editing-duration>
-    <meta:editing-cycles>36</meta:editing-cycles>
+    <dc:date>2022-08-31T18:09:10.058162814</dc:date>
+    <meta:editing-duration>P3DT19H36M11S</meta:editing-duration>
+    <meta:editing-cycles>37</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
     <meta:print-date>2022-02-22T15:22:58.440933192</meta:print-date>
     <meta:document-statistic meta:table-count="2" meta:cell-count="112" meta:object-count="0"/>
@@ -907,8 +1019,8 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">16816</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">14830</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">10706</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">12006</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -932,8 +1044,8 @@
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="Toll Bill Summery">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">8</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">4</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -988,7 +1100,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">nwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpBNABEdXBsZXg6Tm9uZQAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">nwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpEdXBsZXg6Tm9uZQBQYWdlU2l6ZTpBNAAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -1260,9 +1372,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2022-05-04">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2022-08-31">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="22:25:48.915099633">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="18:09:00.599689603">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
